--- a/database/Database.xlsx
+++ b/database/Database.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>3.36297775</t>
+  </si>
+  <si>
+    <t>2024-12-22T22:46:13Z</t>
+  </si>
+  <si>
+    <t>20241222190741010003I0007742178</t>
+  </si>
+  <si>
+    <t>2024-12-22T14:46:13.81Z</t>
   </si>
 </sst>
 </file>
@@ -718,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1.0000008937E8</v>
+        <v>1.0000005574E8</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B96D996-2561-4826-96B8-760C91C3190F}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -1533,6 +1542,65 @@
         <v>48</v>
       </c>
       <c r="S20" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>-33.63</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="M21" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="N21" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="P21" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="Q21" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="R21" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="S21" t="s" s="0">
         <v>49</v>
       </c>
     </row>
